--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1183432.424628321</v>
+        <v>1180853.21141064</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>57.196366974007</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885219</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734244</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34.64296116389235</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906504</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833759</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>20.57458572019166</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>196.1928717106378</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>314.0947297622516</v>
+        <v>280.8816650451691</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>89.34519834805292</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>206.2864326596779</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>387.1717988101829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186934</v>
+        <v>226.9849106729459</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.71437374394024</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>7.449930460854127</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>60.86538463674672</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>318.37326670242</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238024</v>
+        <v>22.60777203238035</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114107</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>44.2661940322506</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035209</v>
+        <v>9.753166794035266</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>149.9558947344624</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>161.0548434387347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672547</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.6173698503545</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>16.93201195219033</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>38.03682829123523</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>125.2851635392057</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>55.52079624060451</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>134.3391137331272</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S25" t="n">
-        <v>55.52079624060451</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>9.146142788179651</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>36.22494343870252</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696321</v>
       </c>
       <c r="D31" t="n">
-        <v>9.146142788180381</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179546</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>24.83266606353076</v>
+        <v>30.97191586387613</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.06560892428088</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>223.1546446143044</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,10 +3901,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8253826161910711</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.03099717513950509</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>26.05480806223644</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>4.665762779849501</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1671.520478976382</v>
+        <v>798.3854288869068</v>
       </c>
       <c r="C2" t="n">
-        <v>1671.520478976382</v>
+        <v>429.422911946495</v>
       </c>
       <c r="D2" t="n">
-        <v>1313.254780369632</v>
+        <v>71.15721333974456</v>
       </c>
       <c r="E2" t="n">
-        <v>927.4665277713875</v>
+        <v>71.15721333974456</v>
       </c>
       <c r="F2" t="n">
-        <v>516.48062298178</v>
+        <v>64.21171259054108</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272275</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640846</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870219</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974684</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156579</v>
+        <v>928.7179450719127</v>
       </c>
       <c r="M2" t="n">
-        <v>1142.292041673258</v>
+        <v>1371.301548596299</v>
       </c>
       <c r="N2" t="n">
-        <v>1783.315251293152</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>2077.249136779527</v>
+        <v>2287.440977532827</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068628</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016316</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016316</v>
+        <v>2554.999876076448</v>
       </c>
       <c r="U2" t="n">
-        <v>2448.259651016316</v>
+        <v>2301.359014458034</v>
       </c>
       <c r="V2" t="n">
-        <v>2448.259651016316</v>
+        <v>2301.359014458034</v>
       </c>
       <c r="W2" t="n">
-        <v>2448.259651016316</v>
+        <v>1948.59035918792</v>
       </c>
       <c r="X2" t="n">
-        <v>2448.259651016316</v>
+        <v>1575.12460092684</v>
       </c>
       <c r="Y2" t="n">
-        <v>2058.120319040504</v>
+        <v>1184.985268951029</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.629392168681</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093853</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214994989</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202275</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>775.2612895234812</v>
+        <v>775.2612895234854</v>
       </c>
       <c r="M3" t="n">
-        <v>1082.633797470266</v>
+        <v>1416.284499143379</v>
       </c>
       <c r="N3" t="n">
-        <v>1723.65700709016</v>
+        <v>1723.657007090154</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925579</v>
+        <v>2352.385654925575</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879287</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
@@ -4440,7 +4440,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.79985532281974</v>
+        <v>370.8526776630624</v>
       </c>
       <c r="C4" t="n">
-        <v>51.79985532281974</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D4" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281974</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018365</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159861</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341293</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666686</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092685</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357423</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993466</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361116</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361116</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361116</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361116</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1022.065682353218</v>
+        <v>1022.065682353225</v>
       </c>
       <c r="V4" t="n">
-        <v>767.3811941473308</v>
+        <v>1001.28327253485</v>
       </c>
       <c r="W4" t="n">
-        <v>477.9640241103702</v>
+        <v>1001.28327253485</v>
       </c>
       <c r="X4" t="n">
-        <v>249.9744732123528</v>
+        <v>773.2937216368322</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.79985532281974</v>
+        <v>552.501142493302</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1149.368166636055</v>
+        <v>1870.570385955435</v>
       </c>
       <c r="C5" t="n">
-        <v>1149.368166636055</v>
+        <v>1501.607869015024</v>
       </c>
       <c r="D5" t="n">
-        <v>1149.368166636055</v>
+        <v>1501.607869015024</v>
       </c>
       <c r="E5" t="n">
-        <v>1149.368166636055</v>
+        <v>1115.819616416779</v>
       </c>
       <c r="F5" t="n">
-        <v>738.3822618464471</v>
+        <v>704.8337116271719</v>
       </c>
       <c r="G5" t="n">
         <v>421.1148580461929</v>
@@ -4562,55 +4562,55 @@
         <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281974</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104773</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135505</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
         <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560732</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019559</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.170226019559</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="V5" t="n">
-        <v>1926.107338675988</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="W5" t="n">
-        <v>1926.107338675988</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="X5" t="n">
-        <v>1926.107338675988</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="Y5" t="n">
-        <v>1535.968006700176</v>
+        <v>2257.170226019557</v>
       </c>
     </row>
     <row r="6">
@@ -4629,37 +4629,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281974</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226162</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682818</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845966</v>
+        <v>861.0792809845962</v>
       </c>
       <c r="M6" t="n">
         <v>1227.385170476922</v>
       </c>
       <c r="N6" t="n">
-        <v>1617.794731802665</v>
+        <v>1617.794731802664</v>
       </c>
       <c r="O6" t="n">
-        <v>1952.723412518196</v>
+        <v>1952.723412518195</v>
       </c>
       <c r="P6" t="n">
         <v>2445.212480716556</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.79985532281974</v>
+        <v>518.7657712454554</v>
       </c>
       <c r="C7" t="n">
-        <v>51.79985532281974</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D7" t="n">
-        <v>51.79985532281974</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79985532281974</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281974</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281974</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281974</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281974</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080555</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4750,25 +4750,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1556.735995054835</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1333.801420596816</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1044.683643607215</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>789.9991554013278</v>
+        <v>1438.613536154203</v>
       </c>
       <c r="W7" t="n">
-        <v>500.5819853643672</v>
+        <v>1149.196366117243</v>
       </c>
       <c r="X7" t="n">
-        <v>272.5924344663499</v>
+        <v>921.2068152192253</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.79985532281974</v>
+        <v>700.4142360756952</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.9769052326576</v>
+        <v>1870.570385955435</v>
       </c>
       <c r="C8" t="n">
-        <v>520.0143882922459</v>
+        <v>1501.607869015024</v>
       </c>
       <c r="D8" t="n">
-        <v>520.0143882922459</v>
+        <v>1143.342170408273</v>
       </c>
       <c r="E8" t="n">
-        <v>520.0143882922459</v>
+        <v>757.5539178100289</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9317632314551</v>
+        <v>346.5680130204213</v>
       </c>
       <c r="G8" t="n">
         <v>117.2903254719911</v>
@@ -4799,55 +4799,55 @@
         <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281974</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135513</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L8" t="n">
-        <v>804.613300747739</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140987</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140987</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="U8" t="n">
-        <v>2336.413538083234</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="V8" t="n">
-        <v>2005.350650739663</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="W8" t="n">
-        <v>1652.581995469549</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="X8" t="n">
-        <v>1279.116237208469</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="Y8" t="n">
-        <v>888.9769052326576</v>
+        <v>2257.170226019557</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281974</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>150.3210832974681</v>
       </c>
       <c r="K9" t="n">
-        <v>301.946747225829</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594469</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951773</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277515</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993046</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858065</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.7188138990833</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C10" t="n">
-        <v>516.7826309711764</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D10" t="n">
-        <v>366.6659915588407</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281974</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281974</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281974</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080556</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121974</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225447</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317426</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
-        <v>1391.6026718971</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1639.458487870188</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1384.773999664301</v>
+        <v>1585.503483652114</v>
       </c>
       <c r="W10" t="n">
-        <v>1095.35682962734</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="X10" t="n">
-        <v>867.3672787293231</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="Y10" t="n">
-        <v>867.3672787293231</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408905</v>
+        <v>1992.55165954096</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1670.962501255688</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>1312.696802648937</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>926.9085500506931</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738907</v>
+        <v>515.9226452610856</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386829</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420321</v>
+        <v>704.5155104420314</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.484858878108</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765426</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856285</v>
+        <v>3535.048359856281</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.553311234589</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234593</v>
+        <v>3826.588132455659</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750373</v>
+        <v>3826.588132455659</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382981</v>
+        <v>3826.588132455659</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039411</v>
+        <v>3495.525245112088</v>
       </c>
       <c r="W11" t="n">
-        <v>3092.484269734106</v>
+        <v>3142.756589841973</v>
       </c>
       <c r="X11" t="n">
-        <v>2719.018511473027</v>
+        <v>2769.290831580894</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.018511473027</v>
+        <v>2379.151499605082</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,28 +5112,28 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.8120623792127</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376504</v>
+        <v>477.16213223765</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649601</v>
+        <v>900.4499396649594</v>
       </c>
       <c r="M12" t="n">
         <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259916</v>
+        <v>1955.072021259915</v>
       </c>
       <c r="O12" t="n">
-        <v>2367.979045985249</v>
+        <v>2007.710743145095</v>
       </c>
       <c r="P12" t="n">
         <v>2367.979045985249</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>523.4307467173311</v>
+        <v>692.2646055703332</v>
       </c>
       <c r="C13" t="n">
-        <v>523.4307467173311</v>
+        <v>540.7940048284526</v>
       </c>
       <c r="D13" t="n">
-        <v>373.3141073049953</v>
+        <v>540.7940048284526</v>
       </c>
       <c r="E13" t="n">
-        <v>225.4010137226022</v>
+        <v>392.8809112460594</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469187</v>
+        <v>245.9909637481491</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600397</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
         <v>368.45504734577</v>
@@ -5206,43 +5206,43 @@
         <v>717.5002252888912</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
         <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906987</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457033</v>
+        <v>1935.094986101149</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897322</v>
+        <v>1646.004279541438</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691435</v>
+        <v>1391.319791335551</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544743</v>
+        <v>1101.90262129859</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564569</v>
+        <v>873.9130704005729</v>
       </c>
       <c r="Y13" t="n">
-        <v>523.4307467173311</v>
+        <v>873.9130704005729</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965431</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358681</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708295</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>328.4394675364389</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
@@ -5288,40 +5288,40 @@
         <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070874</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820541</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.19805447697</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206856</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945776</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969964</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K15" t="n">
-        <v>141.6400447072594</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072594</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M15" t="n">
-        <v>733.658398959387</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>2128.167016284654</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2128.167016284654</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2547.75053471073</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>722.0485409200903</v>
+        <v>706.6674866466267</v>
       </c>
       <c r="C16" t="n">
-        <v>704.9454985441408</v>
+        <v>537.7313037187198</v>
       </c>
       <c r="D16" t="n">
-        <v>554.8288591318051</v>
+        <v>387.6146643063839</v>
       </c>
       <c r="E16" t="n">
-        <v>406.915765549412</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515016</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020529</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107598</v>
+        <v>2389.954735732152</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.66745682198</v>
+        <v>2170.275953446534</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>1881.199739761261</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1626.515251555374</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1337.098081518414</v>
       </c>
       <c r="X16" t="n">
-        <v>1124.48958489386</v>
+        <v>1109.108530620397</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.69700575033</v>
+        <v>888.3159514768664</v>
       </c>
     </row>
     <row r="17">
@@ -5516,13 +5516,13 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5607,10 +5607,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.6725264685176</v>
+        <v>916.3099000622262</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406107</v>
+        <v>747.3737171343193</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282751</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458821</v>
+        <v>449.3439841395905</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>302.4540366416802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,13 +5674,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216013</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583152</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377265</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442287</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987573</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,22 +5753,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,13 +6002,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,13 +6063,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.6725264685176</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406107</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282751</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458821</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216013</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583152</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377265</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442287</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987573</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,13 +6236,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.899304487669</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597622</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597622</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597622</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6388,16 +6388,16 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6409,25 +6409,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179088</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>763.7541388327645</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>945.4026036630042</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.899304487669</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597622</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6868,40 +6868,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614389</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179088</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,55 +7072,55 @@
         <v>580.899304487669</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133955</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133955</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310024</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
         <v>2044.506784258106</v>
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,10 +7181,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C40" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
         <v>261.0127623330919</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,7 +7348,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y40" t="n">
-        <v>759.5105036736317</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.899304487669</v>
+        <v>801.66057335328</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597622</v>
+        <v>632.7243904253731</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474263</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.81129684298</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.931773302341</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.076938957246</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.475473980187</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.400247324385</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.715759118498</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.298589081537</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614389</v>
+        <v>983.3090381835198</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179088</v>
+        <v>983.3090381835198</v>
       </c>
     </row>
     <row r="44">
@@ -7646,7 +7646,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.899304487669</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597622</v>
+        <v>847.6442739835333</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474263</v>
+        <v>697.5276345711975</v>
       </c>
       <c r="E46" t="n">
-        <v>261.8464821474263</v>
+        <v>549.6145409888044</v>
       </c>
       <c r="F46" t="n">
-        <v>261.8464821474263</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7834,22 +7834,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614389</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179088</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7979,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037393</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>147.9929666331142</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659714</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
-        <v>19.00774360580152</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159829</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>43.87169338515037</v>
+        <v>380.8926041660669</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945085</v>
+        <v>22.26125001357735</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>245.4670104377187</v>
+        <v>245.46701043772</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906576</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>35.38972270187071</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.8549597144475</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906574</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>46.89962506858751</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.975526991141</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>304.9747746851624</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>17.29092636416547</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034038</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146338</v>
+        <v>79.00824149146344</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.52980991336008</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50.29152613728959</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.2915261372918</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>150.3148091464375</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>143.3016600672237</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>40.23897475306318</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610401</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>32.90770736550067</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194127</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.2749052347516</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>250.2980548978885</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>110.0033420516646</v>
       </c>
       <c r="D31" t="n">
-        <v>139.469330230032</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>144.5956654067399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.4141550350971</v>
+        <v>136.2749052347517</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393148</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>63.36835372228657</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>145.6085800303781</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.34424953498218</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.4693302300324</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.9188905722453</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998373.753177844</v>
+        <v>998373.7531778434</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>975367.4874819901</v>
+        <v>975367.4874819902</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>975367.4874819901</v>
+        <v>975367.4874819902</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>871530.3806685976</v>
+        <v>871530.3806685972</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>948638.2273597973</v>
+        <v>948638.2273597978</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>953886.7503208682</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>953886.7503208682</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>953886.7503208682</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>953886.7503208682</v>
+        <v>953886.7503208683</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>953886.7503208683</v>
+        <v>953886.7503208682</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719626</v>
+      </c>
+      <c r="C2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719627</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
-      </c>
       <c r="E2" t="n">
-        <v>423807.2415876634</v>
+        <v>423807.2415876632</v>
       </c>
       <c r="F2" t="n">
         <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="J2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="O2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="P2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="M2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="N2" t="n">
-        <v>464109.2948217538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>464109.2948217535</v>
-      </c>
-      <c r="P2" t="n">
-        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,31 +26363,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753948</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898963</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>318590.5451569112</v>
+        <v>318590.5451569108</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051372</v>
+        <v>166521.3471051387</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260483</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83206.75751987661</v>
+        <v>83206.7575198766</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848887</v>
+        <v>43782.40655848937</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151605</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6188.359574389009</v>
       </c>
       <c r="F4" t="n">
-        <v>6280.947910469699</v>
+        <v>6280.9479104697</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695042</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695054</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695054</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695048</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699083</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150963</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150963</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214705</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-716714.8319155835</v>
+        <v>-716714.8319155867</v>
       </c>
       <c r="C6" t="n">
-        <v>76786.81379530916</v>
+        <v>76786.81379531305</v>
       </c>
       <c r="D6" t="n">
-        <v>249551.1735852054</v>
+        <v>249551.1735852051</v>
       </c>
       <c r="E6" t="n">
-        <v>12934.61469421597</v>
+        <v>12724.65045037157</v>
       </c>
       <c r="F6" t="n">
-        <v>188596.4451624223</v>
+        <v>188550.5401668552</v>
       </c>
       <c r="G6" t="n">
-        <v>345532.048230572</v>
+        <v>345497.3103051371</v>
       </c>
       <c r="H6" t="n">
-        <v>356699.2844661516</v>
+        <v>356664.5465407158</v>
       </c>
       <c r="I6" t="n">
-        <v>356699.2844661514</v>
+        <v>356664.5465407156</v>
       </c>
       <c r="J6" t="n">
-        <v>187285.2676401032</v>
+        <v>187250.5297146679</v>
       </c>
       <c r="K6" t="n">
-        <v>356699.2844661515</v>
+        <v>356664.5465407158</v>
       </c>
       <c r="L6" t="n">
-        <v>356699.2844661514</v>
+        <v>356664.5465407158</v>
       </c>
       <c r="M6" t="n">
-        <v>273492.5269462749</v>
+        <v>273457.7890208393</v>
       </c>
       <c r="N6" t="n">
-        <v>312916.8779076628</v>
+        <v>312882.1399822264</v>
       </c>
       <c r="O6" t="n">
-        <v>353675.9864889265</v>
+        <v>353641.2485634912</v>
       </c>
       <c r="P6" t="n">
-        <v>356699.2844661515</v>
+        <v>356664.5465407157</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976067</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498449</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086483</v>
+        <v>981.3883278086472</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,31 +26957,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976067</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522381</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272.4638768447112</v>
+        <v>272.463876844711</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218292</v>
+        <v>145.8707812218304</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>333.8901362734016</v>
+        <v>333.8901362734009</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173597</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.8901362734016</v>
+        <v>333.8901362734009</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173597</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.8901362734016</v>
+        <v>333.8901362734009</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173597</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>355.0913717210372</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>175.2547310652911</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27552,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639206</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519701</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713016</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>231.5630576036363</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.39178164145702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>97.43029361961771</v>
+        <v>130.6433583367002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27822,16 +27822,16 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>105.1399709860382</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>45.85121066415013</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.70424693152853</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>184.5401127089235</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28065,10 +28065,10 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>278.7766687588515</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>191.2722586870813</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090879</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625572</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115537</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066885</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611355</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014918</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682829</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658663</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485875</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775938</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330891</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325338</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282097</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494783</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072703</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674098</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743142</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307749</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859901</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261546</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605097</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911956</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240715</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257139</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433284</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028901</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526427</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.9638617996921</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993399</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364538</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651422</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351901</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777186</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855552</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711379</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600305</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932497</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840036</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184392</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351501</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311386</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519936</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567068</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965165</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189582</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265706</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730742</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182605</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793979</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853283</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027923</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839336</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712727</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062754</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237521</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179235</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837064</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612564</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255622</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041654</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315581</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274807</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157839</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599261</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979553</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561278</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662511</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843065</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523075</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485649</v>
+        <v>4.873046301485647</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508989</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726057</v>
+        <v>619.8697634726053</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216973</v>
+        <v>769.0032542216968</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857426</v>
+        <v>855.6642913857421</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898388</v>
+        <v>869.5098341898383</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294408</v>
+        <v>821.0534800294404</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615137</v>
+        <v>700.7501494615134</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895588</v>
+        <v>526.2341787895584</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475344</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596479</v>
+        <v>89.76921320596473</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202552</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256416</v>
+        <v>566.1178216256412</v>
       </c>
       <c r="M12" t="n">
-        <v>660.632795784533</v>
+        <v>660.6327957845326</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114714</v>
+        <v>678.1177801147137</v>
       </c>
       <c r="O12" t="n">
-        <v>559.6740471973061</v>
+        <v>195.7666705910908</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>497.8817840205468</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071844</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697584</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691791</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2851498857061</v>
+        <v>98.28514988570605</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929612</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826904</v>
+        <v>9.339672552826899</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,34 +32078,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>187.1630768341357</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>145.0576276814857</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000217</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873197</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315046</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410102</v>
+        <v>447.0541449741273</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352467</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>296.9029146327022</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223243</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185443</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932339</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>122.6495881517956</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840947</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>310.4772807543276</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352467</v>
+        <v>310.4772807543179</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579989</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289981</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686856</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882741</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.857665945255</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203466</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550902</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632322</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324789</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000436</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944423</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.1266691917136</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057228</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>497.4637052508691</v>
+        <v>497.4637052508702</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915742</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153411</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755196</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873427</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495859</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510059</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961994</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171363</v>
+        <v>99.51639189358423</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>600.1700598319372</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821471</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482248</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025569</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656115</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978366</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266584</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912599</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597959</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701675</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.7336217364322</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040317</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276251</v>
+        <v>399.7799124276248</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584699</v>
+        <v>625.3180581584694</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932474</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077541</v>
+        <v>590.9552686077536</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062442</v>
+        <v>469.5171537062438</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151093</v>
+        <v>303.9284889151089</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156604</v>
+        <v>90.52095692156587</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458962</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457674</v>
+        <v>427.563441845767</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.4987618625144</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313808</v>
+        <v>546.7760680313804</v>
       </c>
       <c r="O12" t="n">
-        <v>417.0778027528617</v>
+        <v>53.17042614664631</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>363.9073766062165</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.8390133211629</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701841</v>
+        <v>61.1825931670183</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882115</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765378</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998358</v>
+        <v>96.87566713998349</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>49.32163785977673</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>5.07585359546421</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
